--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1878722.509520791</v>
+        <v>-1881310.020726368</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.051674382364</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821742</v>
+        <v>296.3356618821741</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406815</v>
+        <v>48.08148421406801</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>252.1014973371004</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984359</v>
+        <v>90.46872094984357</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173974</v>
+        <v>11.79954938173968</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>112.5780286437802</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978307</v>
+        <v>15.2380276607694</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
         <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>365.0397158212492</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.8116866466415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3.961303165911258</v>
       </c>
       <c r="X7" t="n">
-        <v>209.3584761600174</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>38.54479897546828</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>97.18149940501786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>97.27949743629759</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>143.0812453977549</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576166</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>151.8518831495022</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176086</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703269</v>
       </c>
       <c r="H19" t="n">
-        <v>71.76895293959882</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242822</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180001</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715718</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2077.782677295574</v>
+        <v>1569.590589570799</v>
       </c>
       <c r="C2" t="n">
-        <v>1708.820160355162</v>
+        <v>1569.590589570799</v>
       </c>
       <c r="D2" t="n">
-        <v>1350.554461748412</v>
+        <v>1211.324890964049</v>
       </c>
       <c r="E2" t="n">
-        <v>964.7662091501679</v>
+        <v>825.5366383658044</v>
       </c>
       <c r="F2" t="n">
-        <v>553.7803043605604</v>
+        <v>825.5366383658044</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803943</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842588</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247283</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.1001391730314</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315694</v>
+        <v>549.6723906315699</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529735</v>
+        <v>974.3476699529751</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808269</v>
+        <v>1478.550181808271</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811714</v>
+        <v>1995.525025811716</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.35445007607</v>
+        <v>2470.354450076073</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259757</v>
+        <v>2841.109377259761</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510237</v>
+        <v>3071.35814051024</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623637</v>
+        <v>3119.882870623641</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.70867367284</v>
+        <v>3005.708673672844</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614957</v>
+        <v>2798.984896614961</v>
       </c>
       <c r="U2" t="n">
-        <v>2798.984896614957</v>
+        <v>2545.440785998363</v>
       </c>
       <c r="V2" t="n">
-        <v>2467.922009271386</v>
+        <v>2214.377898654793</v>
       </c>
       <c r="W2" t="n">
-        <v>2467.922009271386</v>
+        <v>1959.729921546611</v>
       </c>
       <c r="X2" t="n">
-        <v>2467.922009271386</v>
+        <v>1959.729921546611</v>
       </c>
       <c r="Y2" t="n">
-        <v>2077.782677295574</v>
+        <v>1569.590589570799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451371</v>
+        <v>1494.450283274071</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640101</v>
+        <v>1319.997253992944</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027589</v>
+        <v>1171.062844331693</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973033</v>
+        <v>1011.825389326237</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1532254241882</v>
+        <v>865.2908313531224</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>728.8365465046224</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170481</v>
+        <v>637.4540000906391</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247275</v>
+        <v>625.535263341407</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602528</v>
+        <v>710.7690176891873</v>
       </c>
       <c r="K3" t="n">
-        <v>371.464298498186</v>
+        <v>934.6019044271209</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663799</v>
+        <v>1281.895384495315</v>
       </c>
       <c r="M3" t="n">
-        <v>1143.389757203036</v>
+        <v>1706.527363131971</v>
       </c>
       <c r="N3" t="n">
-        <v>1593.669125698063</v>
+        <v>2156.806731627</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.366983457259</v>
+        <v>2546.504589386196</v>
       </c>
       <c r="P3" t="n">
-        <v>2276.800804435759</v>
+        <v>2973.649328608495</v>
       </c>
       <c r="Q3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623641</v>
       </c>
       <c r="R3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623641</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.6136627297</v>
+        <v>2988.751268658634</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.603124153399</v>
+        <v>2795.740730082334</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.529278295636</v>
+        <v>2567.66688422457</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.377170063893</v>
+        <v>2332.514775992828</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.139813335692</v>
+        <v>2078.277419264626</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.288313130159</v>
+        <v>1870.425919059093</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.528014365205</v>
+        <v>1662.665620294139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.0787537833712</v>
+        <v>357.2006984927763</v>
       </c>
       <c r="C4" t="n">
-        <v>474.1425708554643</v>
+        <v>357.2006984927763</v>
       </c>
       <c r="D4" t="n">
-        <v>324.0259314431286</v>
+        <v>357.2006984927763</v>
       </c>
       <c r="E4" t="n">
-        <v>176.1128378607355</v>
+        <v>209.2876049103832</v>
       </c>
       <c r="F4" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247283</v>
       </c>
       <c r="G4" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247283</v>
       </c>
       <c r="H4" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247283</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247275</v>
+        <v>62.39765741247283</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038607</v>
+        <v>102.2230998038609</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589864</v>
+        <v>297.5053722589869</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712698</v>
+        <v>602.9258822712707</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583194</v>
+        <v>935.3381100583205</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468307</v>
+        <v>1265.280934468308</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090064</v>
+        <v>1554.020240090065</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077021</v>
+        <v>1777.565915077022</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001215</v>
+        <v>1848.902273001217</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809515</v>
+        <v>1833.510325869126</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.6163853208</v>
+        <v>1640.492193380411</v>
       </c>
       <c r="T4" t="n">
-        <v>1562.6163853208</v>
+        <v>1418.398944299282</v>
       </c>
       <c r="U4" t="n">
-        <v>1273.509348655158</v>
+        <v>1129.291907633641</v>
       </c>
       <c r="V4" t="n">
-        <v>1273.509348655158</v>
+        <v>874.6074194277543</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.509348655158</v>
+        <v>585.1902493907936</v>
       </c>
       <c r="X4" t="n">
-        <v>1045.519797757141</v>
+        <v>357.2006984927763</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.7272186136109</v>
+        <v>357.2006984927763</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>888.2219056603517</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>477.2360008707441</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4571,10 +4571,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.034709923658</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
         <v>163.837793613838</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1705.527932658019</v>
+        <v>1130.907408038813</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>902.9178571407958</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>682.1252779972657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.073083428566</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881544</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1210.836060705128</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>825.0478081068841</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>414.0619033172765</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>403.0298572026771</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>105.4462568114443</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.8122554685</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.672923492688</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>459.5772761350097</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>459.5772761350097</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>311.6641825526166</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>164.7742350547062</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>164.7742350547062</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1501.251696170064</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1501.251696170064</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>1501.251696170064</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,13 +5130,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>1896.176478190825</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740071</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C16" t="n">
-        <v>344.917417812164</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.917417812164</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>344.917417812164</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836015</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556946</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433589</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E19" t="n">
-        <v>415.5933575433589</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F19" t="n">
-        <v>415.5933575433589</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G19" t="n">
-        <v>248.3972582582388</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138412</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270438</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C28" t="n">
         <v>344.9174178121639</v>
@@ -6373,22 +6373,22 @@
         <v>344.9174178121639</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,37 +7555,37 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>135.0615335795939</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.0615335795969</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113714</v>
+        <v>5.7477442701136</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>269.0387706651921</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>97.13947138031264</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>32.84301937915109</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339734</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899009</v>
+        <v>98.62837588899006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>77.09704997901359</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73.85777223953495</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>78.25894333073093</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194197</v>
       </c>
       <c r="H19" t="n">
-        <v>68.52575990662507</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405082</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537622</v>
+        <v>82889.17417537626</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26326,16 +26326,16 @@
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
+        <v>100893.3249612507</v>
+      </c>
+      <c r="H2" t="n">
         <v>100893.3249612508</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>100893.3249612507</v>
       </c>
-      <c r="I2" t="n">
-        <v>100893.3249612508</v>
-      </c>
       <c r="J2" t="n">
-        <v>100893.3249612508</v>
+        <v>100893.3249612507</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330355</v>
@@ -26347,10 +26347,10 @@
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="O2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="O2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.29747634</v>
+        <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023833</v>
+        <v>54832.77288023717</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503627</v>
+        <v>204074.658450363</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.344105943</v>
+        <v>32664.34410594266</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551185</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13682.85454400352</v>
+        <v>13682.85454400347</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="K4" t="n">
         <v>19157.891514887</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="M4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103892.0286120431</v>
+        <v>103892.0286120432</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1305753.006457011</v>
+        <v>-1306147.827398165</v>
       </c>
       <c r="C6" t="n">
-        <v>-150490.559231741</v>
+        <v>-150490.5592317399</v>
       </c>
       <c r="D6" t="n">
-        <v>-95657.78635150271</v>
+        <v>-95657.78635150274</v>
       </c>
       <c r="E6" t="n">
-        <v>-336808.698921805</v>
+        <v>-336843.4368472407</v>
       </c>
       <c r="F6" t="n">
-        <v>-11396.23711444989</v>
+        <v>-11430.97503988554</v>
       </c>
       <c r="G6" t="n">
-        <v>-11396.23711444989</v>
+        <v>-11430.97503988558</v>
       </c>
       <c r="H6" t="n">
-        <v>-11396.2371144499</v>
+        <v>-11430.97503988555</v>
       </c>
       <c r="I6" t="n">
-        <v>-11396.23711444985</v>
+        <v>-11430.9750398856</v>
       </c>
       <c r="J6" t="n">
-        <v>-215470.8955648125</v>
+        <v>-215505.6334902486</v>
       </c>
       <c r="K6" t="n">
-        <v>-52356.13024170995</v>
+        <v>-52356.1302417096</v>
       </c>
       <c r="L6" t="n">
-        <v>-19691.78613576693</v>
+        <v>-19691.7861357669</v>
       </c>
       <c r="M6" t="n">
-        <v>-104746.8140712787</v>
+        <v>-104746.8140712788</v>
       </c>
       <c r="N6" t="n">
-        <v>-19691.78613576698</v>
+        <v>-19691.7861357669</v>
       </c>
       <c r="O6" t="n">
-        <v>-19691.7861357669</v>
+        <v>-19691.78613576692</v>
       </c>
       <c r="P6" t="n">
-        <v>-39119.50412939873</v>
+        <v>-39119.50412939869</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559103</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303277</v>
+        <v>41.96894928303186</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559103</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638219</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559091</v>
+        <v>779.9707176559103</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638344</v>
+        <v>51.43073774638219</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559093</v>
+        <v>779.9707176559103</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638322</v>
+        <v>51.43073774638219</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>45.88200983220429</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.4262520094121</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.5616951706797</v>
       </c>
       <c r="X7" t="n">
-        <v>16.35117922901975</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.032130797457668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>272.5496012734512</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>47.47551747802319</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>143.130592807858</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578954</v>
+        <v>4.212292467578957</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359297</v>
+        <v>43.13914023359301</v>
       </c>
       <c r="I2" t="n">
-        <v>162.3944053563378</v>
+        <v>162.3944053563379</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201795</v>
+        <v>357.5130578201799</v>
       </c>
       <c r="K2" t="n">
-        <v>535.8193979727968</v>
+        <v>535.8193979727972</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774663</v>
+        <v>664.7313435774669</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477735</v>
+        <v>739.6416997477742</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212823</v>
+        <v>751.6098757212829</v>
       </c>
       <c r="O2" t="n">
-        <v>709.723892496794</v>
+        <v>709.7238924967946</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034385</v>
+        <v>605.732922203439</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082671</v>
+        <v>454.8801982082675</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165567</v>
+        <v>264.6004167165569</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495551</v>
+        <v>95.98761460495558</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682688</v>
+        <v>18.43931027682689</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063162</v>
+        <v>0.3369833974063165</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.253775163195666</v>
+        <v>2.253775163195668</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665288</v>
+        <v>21.7667232866529</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967534</v>
+        <v>77.5970834696754</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280607</v>
+        <v>212.9323280280609</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621703</v>
+        <v>363.9352639621706</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982519</v>
+        <v>489.3558747982523</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640946</v>
+        <v>571.0552244640951</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278061</v>
+        <v>586.1693570278065</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012073</v>
+        <v>536.2304442012078</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825127</v>
+        <v>430.3722063825131</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861695</v>
+        <v>287.6924225861698</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938502</v>
+        <v>139.9317596938504</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848086</v>
+        <v>41.8628851584809</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284279</v>
+        <v>9.084295504284288</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891886</v>
+        <v>0.1482746817891887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608675</v>
+        <v>1.889489387608677</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346623</v>
+        <v>16.79927837346625</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826818</v>
+        <v>56.82209903826823</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039333</v>
+        <v>133.5868997039335</v>
       </c>
       <c r="K4" t="n">
-        <v>219.524312487626</v>
+        <v>219.5243124876262</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086571</v>
+        <v>280.9155404086574</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957853</v>
+        <v>296.1860500957856</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328805</v>
+        <v>289.1434078328808</v>
       </c>
       <c r="O4" t="n">
-        <v>267.0707363503608</v>
+        <v>267.0707363503611</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431437</v>
+        <v>228.5251528431439</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478501</v>
+        <v>158.2189704478502</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738642</v>
+        <v>84.95831373738649</v>
       </c>
       <c r="S4" t="n">
-        <v>32.9286468731439</v>
+        <v>32.92864687314393</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964337</v>
+        <v>8.073272837964344</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1030630575059279</v>
+        <v>0.103063057505928</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8679233250724</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934933</v>
+        <v>176.4671532934936</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278162</v>
+        <v>315.7295469278167</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074791</v>
+        <v>428.9649286074796</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205008</v>
+        <v>509.2954665205015</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246914</v>
+        <v>522.1968121246921</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751072</v>
+        <v>479.6256810751079</v>
       </c>
       <c r="P2" t="n">
-        <v>374.499926448169</v>
+        <v>374.4999264481694</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338176</v>
+        <v>232.574508333818</v>
       </c>
       <c r="R2" t="n">
-        <v>49.01487890242458</v>
+        <v>49.01487890242481</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.09470136139402</v>
+        <v>86.09470136139419</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878113</v>
+        <v>226.0938249878116</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183777</v>
+        <v>350.8014950183781</v>
       </c>
       <c r="M3" t="n">
-        <v>428.9211905420763</v>
+        <v>428.9211905420768</v>
       </c>
       <c r="N3" t="n">
-        <v>454.8276449444728</v>
+        <v>454.8276449444733</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567629</v>
+        <v>393.6341997567633</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681824</v>
+        <v>431.4593325477767</v>
       </c>
       <c r="Q3" t="n">
-        <v>282.7721820797449</v>
+        <v>147.7106485001483</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726057</v>
+        <v>40.22771958726068</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617432</v>
+        <v>197.2548206617434</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689732</v>
+        <v>308.5055656689735</v>
       </c>
       <c r="M4" t="n">
-        <v>335.7699270576259</v>
+        <v>335.7699270576261</v>
       </c>
       <c r="N4" t="n">
-        <v>333.275580212109</v>
+        <v>333.2755802121094</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644005</v>
+        <v>291.6558642644007</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080372</v>
+        <v>225.8037121080374</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615571</v>
+        <v>72.05692719615585</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5262112417391</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
